--- a/biology/Médecine/Georg_August_Weltz/Georg_August_Weltz.xlsx
+++ b/biology/Médecine/Georg_August_Weltz/Georg_August_Weltz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg August Weltz est un médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né le 16 mars 1889 à Ludwigshafen am Rhein. Il étudie à l'université de Kiel, Königsberg et Munich. En 1913 il obtient son doctorat à Munich. Au cours de la Première Guerre mondiale il travaille dans le corps médical comme médecin assistant. De 1919 à 1920, il est employé comme assistant médical dans un hôpital de Munich et travaille comme un radiologue à Munich de 1921 à 1936. En 1937 il devient membre de la NSDAP. En Août 1939, il a été enrôlé dans l'armée de l'air comme Oberfeldarzt.
 En 1937 il travaille pour le conseil consultatif de la radiologie. À partir de 1936 il est professeur à l'Université de Munich et directeur de l'Institut de médecine aéronautique à Munich. En 1943, il est nommé professeur extraordinaire de la radiologie.
